--- a/database/industries/folad/feghadir/product/quarterly.xlsx
+++ b/database/industries/folad/feghadir/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\feghadir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC998109-D393-4D28-8E8C-2D535E2F81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="27">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فغدیر-آهن و فولاد غدیر ایرانیان</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -91,6 +92,9 @@
   </si>
   <si>
     <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -102,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +276,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -284,7 +288,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -331,6 +335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -366,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,17 +555,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -537,7 +575,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +587,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -561,7 +599,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -571,7 +609,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -583,7 +621,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -595,7 +633,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -605,7 +643,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -627,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -637,7 +675,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -648,11 +686,11 @@
       <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>12</v>
@@ -661,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -670,66 +708,66 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>213779</v>
+        <v>241255</v>
       </c>
       <c r="F11" s="11">
-        <v>241255</v>
+        <v>180047</v>
       </c>
       <c r="G11" s="11">
-        <v>180047</v>
+        <v>258986</v>
       </c>
       <c r="H11" s="11">
-        <v>258986</v>
-      </c>
-      <c r="I11" s="11">
         <v>185628</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>0</v>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
+      <c r="G12" s="9">
+        <v>0</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>213779</v>
+        <v>241255</v>
       </c>
       <c r="F13" s="13">
-        <v>241255</v>
+        <v>180047</v>
       </c>
       <c r="G13" s="13">
-        <v>180047</v>
+        <v>258986</v>
       </c>
       <c r="H13" s="13">
-        <v>258986</v>
+        <v>185628</v>
       </c>
       <c r="I13" s="13">
-        <v>185628</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -739,7 +777,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -749,7 +787,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -759,7 +797,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
@@ -781,7 +819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -791,7 +829,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
@@ -802,11 +840,11 @@
       <c r="E19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>12</v>
@@ -815,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
@@ -823,67 +861,67 @@
         <v>14</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11">
-        <v>153505</v>
-      </c>
-      <c r="F20" s="11">
-        <v>283017</v>
+      <c r="E20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="11">
-        <v>218172</v>
+        <v>124816</v>
       </c>
       <c r="H20" s="11">
-        <v>124816</v>
-      </c>
-      <c r="I20" s="11">
         <v>238147</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>0</v>
+      <c r="E21" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>12</v>
+      <c r="G21" s="9">
+        <v>0</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>153505</v>
+        <v>0</v>
       </c>
       <c r="F22" s="13">
-        <v>283017</v>
+        <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>218172</v>
+        <v>124816</v>
       </c>
       <c r="H22" s="13">
-        <v>124816</v>
+        <v>238147</v>
       </c>
       <c r="I22" s="13">
-        <v>238147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -893,7 +931,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -903,7 +941,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -913,7 +951,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -935,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -945,7 +983,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
@@ -956,11 +994,11 @@
       <c r="E28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>12</v>
@@ -969,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
@@ -977,23 +1015,23 @@
         <v>19</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11">
-        <v>12947188</v>
-      </c>
-      <c r="F29" s="11">
-        <v>24552543</v>
+      <c r="E29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G29" s="11">
-        <v>19778337</v>
+        <v>12242549</v>
       </c>
       <c r="H29" s="11">
-        <v>12242549</v>
-      </c>
-      <c r="I29" s="11">
         <v>17671503</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1001,23 +1039,23 @@
         <v>19</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="9">
-        <v>0</v>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
+      <c r="G30" s="9">
+        <v>0</v>
       </c>
       <c r="H30" s="9">
         <v>0</v>
       </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
@@ -1041,29 +1079,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <v>12947188</v>
+        <v>0</v>
       </c>
       <c r="F32" s="15">
-        <v>24552543</v>
+        <v>0</v>
       </c>
       <c r="G32" s="15">
-        <v>19778337</v>
+        <v>12242549</v>
       </c>
       <c r="H32" s="15">
-        <v>12242549</v>
+        <v>17671503</v>
       </c>
       <c r="I32" s="15">
-        <v>17671503</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1073,7 +1111,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1083,7 +1121,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1093,7 +1131,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1125,7 +1163,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
@@ -1158,27 +1196,27 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>84343761</v>
+        <v>86752895</v>
       </c>
       <c r="F39" s="11">
-        <v>86752895</v>
+        <v>90654791</v>
       </c>
       <c r="G39" s="11">
-        <v>90654791</v>
+        <v>98084773</v>
       </c>
       <c r="H39" s="11">
-        <v>98084773</v>
+        <v>74204181</v>
       </c>
       <c r="I39" s="11">
-        <v>74204181</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78421679</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
@@ -1197,7 +1235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1207,7 +1245,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1217,7 +1255,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1227,9 +1265,9 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1249,7 +1287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1259,7 +1297,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>10</v>
       </c>
@@ -1270,11 +1308,11 @@
       <c r="E46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>12</v>
@@ -1283,7 +1321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>13</v>
       </c>
@@ -1292,22 +1330,22 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>-20926946</v>
+        <v>-17686055</v>
       </c>
       <c r="F47" s="11">
-        <v>-17686055</v>
+        <v>-15118707</v>
       </c>
       <c r="G47" s="11">
-        <v>-15118707</v>
+        <v>-8304139</v>
       </c>
       <c r="H47" s="11">
-        <v>-8304139</v>
-      </c>
-      <c r="I47" s="11">
         <v>-13933847</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1315,45 +1353,45 @@
         <v>19</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9">
-        <v>0</v>
+      <c r="E48" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>12</v>
+      <c r="G48" s="9">
+        <v>0</v>
       </c>
       <c r="H48" s="9">
         <v>0</v>
       </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>-20926946</v>
+        <v>-17686055</v>
       </c>
       <c r="F49" s="13">
-        <v>-17686055</v>
+        <v>-15118707</v>
       </c>
       <c r="G49" s="13">
-        <v>-15118707</v>
+        <v>-8304139</v>
       </c>
       <c r="H49" s="13">
-        <v>-8304139</v>
+        <v>-13933847</v>
       </c>
       <c r="I49" s="13">
-        <v>-13933847</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1363,7 +1401,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1373,7 +1411,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1383,9 +1421,9 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1405,7 +1443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1415,7 +1453,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>10</v>
       </c>
@@ -1426,11 +1464,11 @@
       <c r="E55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>12</v>
@@ -1439,7 +1477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>13</v>
       </c>
@@ -1448,22 +1486,22 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>11325445</v>
+        <v>6866489</v>
       </c>
       <c r="F56" s="11">
-        <v>6866489</v>
+        <v>4659630</v>
       </c>
       <c r="G56" s="11">
-        <v>4659630</v>
+        <v>3938410</v>
       </c>
       <c r="H56" s="11">
-        <v>3938410</v>
-      </c>
-      <c r="I56" s="11">
         <v>3737656</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>15</v>
       </c>
@@ -1471,42 +1509,42 @@
         <v>19</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>0</v>
+      <c r="E57" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>12</v>
+      <c r="G57" s="9">
+        <v>0</v>
       </c>
       <c r="H57" s="9">
         <v>0</v>
       </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>11325445</v>
+        <v>6866489</v>
       </c>
       <c r="F58" s="13">
-        <v>6866489</v>
+        <v>4659630</v>
       </c>
       <c r="G58" s="13">
-        <v>4659630</v>
+        <v>3938410</v>
       </c>
       <c r="H58" s="13">
-        <v>3938410</v>
+        <v>3737656</v>
       </c>
       <c r="I58" s="13">
-        <v>3737656</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
